--- a/editors/data.xlsx
+++ b/editors/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="45" documentId="11_CD5865712E4885671528293BA5ED03A2855E0EF3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE2F913D-36F5-4721-9440-AFFD482DBBDE}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="11_CD5865712E4885671528293BA5ED03A2855E0EF3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5EE9AC42-7E9E-4C32-BBFE-98F3A6F61BC7}"/>
   <bookViews>
     <workbookView xWindow="-7320" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="node" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">node!$A$1:$AN$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">node!$A$1:$AN$71</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -1549,48 +1549,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1622,72 +1586,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1972,13 +1909,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP72"/>
+  <dimension ref="A1:AP73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="H11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F5" sqref="F5"/>
       <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
-      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.45"/>
@@ -1986,19 +1923,19 @@
     <col min="1" max="1" width="8.06640625" style="5" customWidth="1"/>
     <col min="2" max="2" width="27.265625" style="5" customWidth="1"/>
     <col min="3" max="3" width="24.73046875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="17.86328125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="39.59765625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="16.265625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="27.06640625" style="4" customWidth="1"/>
     <col min="6" max="6" width="15.73046875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="82.6640625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="31.59765625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="22.265625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="58.3984375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="31.59765625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="22.265625" style="4" customWidth="1"/>
     <col min="10" max="10" width="8.73046875" style="5" customWidth="1"/>
     <col min="11" max="12" width="8.3984375" style="5" customWidth="1"/>
     <col min="13" max="13" width="9.73046875" style="5" customWidth="1"/>
-    <col min="14" max="14" width="11.3984375" style="19" customWidth="1"/>
-    <col min="15" max="15" width="12.73046875" style="19" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.73046875" style="19" customWidth="1"/>
-    <col min="17" max="17" width="12.265625" style="19" customWidth="1"/>
+    <col min="14" max="14" width="11.3984375" style="7" customWidth="1"/>
+    <col min="15" max="15" width="12.73046875" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.73046875" style="7" customWidth="1"/>
+    <col min="17" max="17" width="12.265625" style="7" customWidth="1"/>
     <col min="18" max="18" width="13.59765625" style="5" customWidth="1"/>
     <col min="19" max="19" width="16.3984375" style="5" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11.3984375" style="5" customWidth="1"/>
@@ -2012,18 +1949,18 @@
     <col min="32" max="35" width="29.73046875" style="5" customWidth="1"/>
     <col min="36" max="36" width="30.73046875" style="5" customWidth="1"/>
     <col min="37" max="37" width="12.86328125" style="5" customWidth="1"/>
-    <col min="38" max="38" width="12.59765625" style="6" customWidth="1"/>
-    <col min="39" max="39" width="16.265625" style="6" customWidth="1"/>
+    <col min="38" max="38" width="12.59765625" style="4" customWidth="1"/>
+    <col min="39" max="39" width="16.265625" style="4" customWidth="1"/>
     <col min="40" max="40" width="9" style="5"/>
-    <col min="41" max="41" width="27.73046875" style="6" customWidth="1"/>
-    <col min="42" max="16384" width="9" style="6"/>
+    <col min="41" max="41" width="27.73046875" style="4" customWidth="1"/>
+    <col min="42" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="38.25" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -2035,7 +1972,7 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -2047,108 +1984,108 @@
       <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="Q1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AA1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AB1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AC1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AD1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AE1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AF1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AG1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AH1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AI1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AM1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AN1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="6" t="s">
+      <c r="AO1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="6" t="s">
+      <c r="AP1" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:42" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="14">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -2160,17 +2097,17 @@
       <c r="D2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>44</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="8" t="s">
+      <c r="H2" s="6"/>
+      <c r="I2" s="1" t="s">
         <v>46</v>
       </c>
       <c r="L2" s="5" t="s">
@@ -2179,10 +2116,10 @@
       <c r="M2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="N2" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="R2" s="5" t="s">
         <v>50</v>
       </c>
       <c r="S2" s="5" t="s">
@@ -2200,197 +2137,155 @@
       <c r="AK2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AL2" s="17">
+      <c r="AL2" s="8">
         <v>45163</v>
       </c>
-      <c r="AM2" s="7"/>
+      <c r="AM2" s="6"/>
       <c r="AN2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AO2" s="6" t="s">
+      <c r="AO2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AP2" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:42" ht="46.35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="16" t="s">
+      <c r="AP2" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="1"/>
+      <c r="AL3" s="8"/>
+      <c r="AM3" s="6"/>
+    </row>
+    <row r="4" spans="1:42" ht="46.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G4" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="8" t="s">
+      <c r="H4" s="10"/>
+      <c r="I4" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="L3" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N3" s="19" t="s">
+      <c r="L4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N4" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="R4" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="AJ3" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="AL3" s="17">
-        <v>45163</v>
-      </c>
-      <c r="AM3" s="11"/>
-      <c r="AP3" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:42" ht="54.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="N4" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="R4" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="AJ4" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="AK4" s="5" t="s">
+      <c r="AL4" s="8">
+        <v>45163</v>
+      </c>
+      <c r="AM4" s="10"/>
+      <c r="AP4" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" ht="54.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ5" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK5" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AL4" s="17">
+      <c r="AL5" s="8">
         <v>45163</v>
       </c>
-      <c r="AM4" s="7"/>
-      <c r="AP4" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:42" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="16" t="s">
+      <c r="AM5" s="6"/>
+      <c r="AP5" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="8" t="s">
+      <c r="H6" s="6"/>
+      <c r="I6" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L5" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N5" s="19" t="s">
+      <c r="L6" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N6" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="R5" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC5" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ5" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL5" s="17">
-        <v>45163</v>
-      </c>
-      <c r="AM5" s="7"/>
-      <c r="AP5" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:42" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N6" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="R6" s="9" t="s">
+      <c r="R6" s="5" t="s">
         <v>50</v>
       </c>
       <c r="AC6" s="5" t="s">
@@ -2399,47 +2294,47 @@
       <c r="AJ6" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AL6" s="17">
+      <c r="AL6" s="8">
         <v>45163</v>
       </c>
-      <c r="AM6" s="7"/>
-      <c r="AP6" s="6" t="s">
+      <c r="AM6" s="6"/>
+      <c r="AP6" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:42" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="13" t="s">
-        <v>97</v>
+      <c r="A7" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>99</v>
+        <v>92</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8" t="s">
-        <v>101</v>
+      <c r="G7" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N7" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="R7" s="9" t="s">
+      <c r="N7" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="R7" s="5" t="s">
         <v>50</v>
       </c>
       <c r="AC7" s="5" t="s">
@@ -2448,93 +2343,93 @@
       <c r="AJ7" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AL7" s="17">
+      <c r="AL7" s="8">
         <v>45163</v>
       </c>
-      <c r="AM7" s="7"/>
-      <c r="AP7" s="6" t="s">
+      <c r="AM7" s="6"/>
+      <c r="AP7" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:42" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL8" s="8">
+        <v>45163</v>
+      </c>
+      <c r="AM8" s="6"/>
+      <c r="AP8" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G9" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="8" t="s">
+      <c r="H9" s="6"/>
+      <c r="I9" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="L8" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N8" s="19" t="s">
+      <c r="L9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N9" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="R8" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="U8" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="AJ8" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="AL8" s="17">
-        <v>45163</v>
-      </c>
-      <c r="AM8" s="7"/>
-      <c r="AP8" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:42" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N9" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="R9" s="9" t="s">
+      <c r="R9" s="5" t="s">
         <v>50</v>
       </c>
       <c r="U9" s="5" t="s">
@@ -2543,206 +2438,192 @@
       <c r="AJ9" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="AL9" s="17">
+      <c r="AL9" s="8">
         <v>45163</v>
       </c>
-      <c r="AM9" s="7"/>
-      <c r="AP9" s="6" t="s">
+      <c r="AM9" s="6"/>
+      <c r="AP9" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:42" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="13" t="s">
-        <v>114</v>
+      <c r="A10" s="9" t="s">
+        <v>110</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>115</v>
+        <v>472</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N10" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="R10" s="9"/>
+        <v>474</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="U10" s="5" t="s">
         <v>108</v>
       </c>
       <c r="AJ10" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="AL10" s="17">
+      <c r="AL10" s="8">
         <v>45163</v>
       </c>
-      <c r="AM10" s="7"/>
-      <c r="AP10" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:42" ht="43.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="13" t="s">
-        <v>121</v>
+      <c r="AM10" s="6"/>
+      <c r="AP10" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="9" t="s">
+        <v>114</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>124</v>
+        <v>116</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>126</v>
+        <v>70</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="M11" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N11" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="R11" s="9"/>
+      <c r="N11" s="7" t="s">
+        <v>120</v>
+      </c>
       <c r="U11" s="5" t="s">
         <v>108</v>
       </c>
       <c r="AJ11" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="AL11" s="17">
+      <c r="AL11" s="8">
         <v>45163</v>
       </c>
-      <c r="AM11" s="7"/>
-      <c r="AP11" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:42" ht="45.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="14">
-        <v>5</v>
+      <c r="AM11" s="6"/>
+      <c r="AP11" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" ht="43.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="9" t="s">
+        <v>121</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N12" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="O12" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q12" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="R12" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="T12" s="5" t="s">
-        <v>51</v>
+        <v>123</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="U12" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="V12" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="W12" s="5">
-        <v>1000</v>
-      </c>
       <c r="AJ12" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="AK12" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AL12" s="17">
+        <v>109</v>
+      </c>
+      <c r="AL12" s="8">
         <v>45163</v>
       </c>
-      <c r="AM12" s="7"/>
-      <c r="AP12" s="6" t="s">
+      <c r="AM12" s="6"/>
+      <c r="AP12" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:42" ht="45.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="13" t="s">
-        <v>135</v>
+      <c r="A13" s="5">
+        <v>5</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="20" t="s">
+      <c r="E13" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="1" t="s">
         <v>131</v>
       </c>
       <c r="L13" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N13" s="19" t="s">
+      <c r="N13" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="R13" s="9" t="s">
+      <c r="O13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="R13" s="5" t="s">
         <v>50</v>
       </c>
       <c r="T13" s="5" t="s">
@@ -2763,17 +2644,17 @@
       <c r="AK13" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AL13" s="17">
+      <c r="AL13" s="8">
         <v>45163</v>
       </c>
-      <c r="AM13" s="7"/>
-      <c r="AP13" s="6" t="s">
+      <c r="AM13" s="6"/>
+      <c r="AP13" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:42" ht="45.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="13" t="s">
-        <v>139</v>
+      <c r="A14" s="9" t="s">
+        <v>135</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>57</v>
@@ -2784,26 +2665,26 @@
       <c r="D14" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F14" s="21" t="s">
+      <c r="E14" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="20" t="s">
+      <c r="G14" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="1" t="s">
         <v>131</v>
       </c>
       <c r="L14" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N14" s="19" t="s">
+      <c r="N14" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="R14" s="9" t="s">
+      <c r="R14" s="5" t="s">
         <v>50</v>
       </c>
       <c r="T14" s="5" t="s">
@@ -2824,17 +2705,17 @@
       <c r="AK14" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AL14" s="17">
+      <c r="AL14" s="8">
         <v>45163</v>
       </c>
-      <c r="AM14" s="7"/>
-      <c r="AP14" s="6" t="s">
+      <c r="AM14" s="6"/>
+      <c r="AP14" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:42" ht="45.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="13" t="s">
-        <v>142</v>
+      <c r="A15" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>57</v>
@@ -2845,26 +2726,26 @@
       <c r="D15" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="F15" s="21" t="s">
+      <c r="E15" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G15" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="20" t="s">
+      <c r="G15" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="1" t="s">
         <v>131</v>
       </c>
       <c r="L15" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N15" s="19" t="s">
+      <c r="N15" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="R15" s="9" t="s">
+      <c r="R15" s="5" t="s">
         <v>50</v>
       </c>
       <c r="T15" s="5" t="s">
@@ -2885,17 +2766,17 @@
       <c r="AK15" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AL15" s="17">
+      <c r="AL15" s="8">
         <v>45163</v>
       </c>
-      <c r="AM15" s="7"/>
-      <c r="AP15" s="6" t="s">
+      <c r="AM15" s="6"/>
+      <c r="AP15" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:42" ht="45.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="13" t="s">
-        <v>145</v>
+      <c r="A16" s="9" t="s">
+        <v>142</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>57</v>
@@ -2906,26 +2787,26 @@
       <c r="D16" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F16" s="21" t="s">
+      <c r="E16" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="20" t="s">
+      <c r="G16" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="1" t="s">
         <v>131</v>
       </c>
       <c r="L16" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N16" s="19" t="s">
+      <c r="N16" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="R16" s="9" t="s">
+      <c r="R16" s="5" t="s">
         <v>50</v>
       </c>
       <c r="T16" s="5" t="s">
@@ -2946,44 +2827,47 @@
       <c r="AK16" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AL16" s="17">
+      <c r="AL16" s="8">
         <v>45163</v>
       </c>
-      <c r="AM16" s="7"/>
-      <c r="AP16" s="6" t="s">
+      <c r="AM16" s="6"/>
+      <c r="AP16" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:42" ht="45.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="13" t="s">
-        <v>148</v>
+      <c r="A17" s="9" t="s">
+        <v>145</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F17" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N17" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="R17" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="R17" s="5" t="s">
         <v>50</v>
       </c>
       <c r="T17" s="5" t="s">
@@ -2999,49 +2883,49 @@
         <v>1000</v>
       </c>
       <c r="AJ17" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="AL17" s="17">
+        <v>134</v>
+      </c>
+      <c r="AK17" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL17" s="8">
         <v>45163</v>
       </c>
-      <c r="AM17" s="7"/>
-      <c r="AP17" s="6" t="s">
+      <c r="AM17" s="6"/>
+      <c r="AP17" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:42" ht="45.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="13" t="s">
-        <v>153</v>
+      <c r="A18" s="9" t="s">
+        <v>148</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N18" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="R18" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="R18" s="5" t="s">
         <v>50</v>
       </c>
       <c r="T18" s="5" t="s">
@@ -3057,22 +2941,19 @@
         <v>1000</v>
       </c>
       <c r="AJ18" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="AK18" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AL18" s="17">
+        <v>152</v>
+      </c>
+      <c r="AL18" s="8">
         <v>45163</v>
       </c>
-      <c r="AM18" s="7"/>
-      <c r="AP18" s="6" t="s">
+      <c r="AM18" s="6"/>
+      <c r="AP18" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:42" ht="45.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="13" t="s">
-        <v>156</v>
+      <c r="A19" s="9" t="s">
+        <v>153</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>57</v>
@@ -3083,26 +2964,26 @@
       <c r="D19" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>157</v>
+      <c r="E19" s="6" t="s">
+        <v>154</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="20" t="s">
+      <c r="G19" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="I19" s="1" t="s">
         <v>131</v>
       </c>
       <c r="L19" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N19" s="19" t="s">
+      <c r="N19" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="R19" s="9" t="s">
+      <c r="R19" s="5" t="s">
         <v>50</v>
       </c>
       <c r="T19" s="5" t="s">
@@ -3123,47 +3004,47 @@
       <c r="AK19" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AL19" s="17">
+      <c r="AL19" s="8">
         <v>45163</v>
       </c>
-      <c r="AM19" s="7"/>
-      <c r="AP19" s="6" t="s">
+      <c r="AM19" s="6"/>
+      <c r="AP19" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:42" ht="45.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="13" t="s">
-        <v>159</v>
+      <c r="A20" s="9" t="s">
+        <v>156</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>161</v>
+      <c r="E20" s="6" t="s">
+        <v>157</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7" t="s">
-        <v>164</v>
+        <v>58</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="H20" s="6"/>
+      <c r="I20" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="L20" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N20" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="R20" s="9" t="s">
+      <c r="N20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="R20" s="5" t="s">
         <v>50</v>
       </c>
       <c r="T20" s="5" t="s">
@@ -3184,47 +3065,47 @@
       <c r="AK20" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AL20" s="17">
+      <c r="AL20" s="8">
         <v>45163</v>
       </c>
-      <c r="AM20" s="7"/>
-      <c r="AP20" s="6" t="s">
+      <c r="AM20" s="6"/>
+      <c r="AP20" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:42" ht="45.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="13" t="s">
-        <v>165</v>
+      <c r="A21" s="9" t="s">
+        <v>159</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>167</v>
+      <c r="E21" s="6" t="s">
+        <v>161</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7" t="s">
+      <c r="H21" s="6"/>
+      <c r="I21" s="6" t="s">
         <v>164</v>
       </c>
       <c r="L21" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N21" s="19" t="s">
+      <c r="N21" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="R21" s="9" t="s">
+      <c r="R21" s="5" t="s">
         <v>50</v>
       </c>
       <c r="T21" s="5" t="s">
@@ -3245,47 +3126,47 @@
       <c r="AK21" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AL21" s="17">
+      <c r="AL21" s="8">
         <v>45163</v>
       </c>
-      <c r="AM21" s="7"/>
-      <c r="AP21" s="6" t="s">
+      <c r="AM21" s="6"/>
+      <c r="AP21" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:42" ht="45.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="13" t="s">
-        <v>168</v>
+      <c r="A22" s="9" t="s">
+        <v>165</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>169</v>
+      <c r="E22" s="6" t="s">
+        <v>167</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="20" t="s">
-        <v>131</v>
+        <v>162</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6" t="s">
+        <v>164</v>
       </c>
       <c r="L22" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N22" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="R22" s="9" t="s">
+      <c r="N22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="R22" s="5" t="s">
         <v>50</v>
       </c>
       <c r="T22" s="5" t="s">
@@ -3306,17 +3187,17 @@
       <c r="AK22" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AL22" s="17">
+      <c r="AL22" s="8">
         <v>45163</v>
       </c>
-      <c r="AM22" s="7"/>
-      <c r="AP22" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:42" ht="41.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="13" t="s">
-        <v>172</v>
+      <c r="AM22" s="6"/>
+      <c r="AP22" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:42" ht="45.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="9" t="s">
+        <v>168</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>57</v>
@@ -3325,144 +3206,152 @@
         <v>136</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>173</v>
+        <v>128</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>169</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G23" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="H23" s="6"/>
+      <c r="I23" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="R23" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="T23" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="U23" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="V23" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="W23" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AJ23" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK23" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL23" s="8">
+        <v>45163</v>
+      </c>
+      <c r="AM23" s="6"/>
+      <c r="AP23" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:42" ht="41.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="8" t="s">
+      <c r="H24" s="6"/>
+      <c r="I24" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="K23" s="5" t="s">
+      <c r="K24" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="L23" s="5" t="s">
+      <c r="L24" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="M23" s="5" t="s">
+      <c r="M24" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="N23" s="19" t="s">
+      <c r="N24" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="R23" s="10" t="s">
+      <c r="R24" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="S23" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="T23" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="W23" s="5">
-        <v>500</v>
-      </c>
-      <c r="AJ23" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK23" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL23" s="17">
-        <v>45163</v>
-      </c>
-      <c r="AM23" s="7"/>
-      <c r="AP23" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:42" ht="49.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="14">
-        <v>6</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="I24" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N24" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="R24" s="9" t="s">
-        <v>50</v>
       </c>
       <c r="S24" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="AD24" s="5" t="s">
-        <v>55</v>
+      <c r="T24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="W24" s="5">
+        <v>500</v>
       </c>
       <c r="AJ24" s="5" t="s">
-        <v>180</v>
+        <v>69</v>
       </c>
       <c r="AK24" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AL24" s="17">
+      <c r="AL24" s="8">
         <v>45163</v>
       </c>
-      <c r="AP24" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:42" ht="41.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="13" t="s">
-        <v>181</v>
+      <c r="AM24" s="6"/>
+      <c r="AP24" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:42" ht="49.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="5">
+        <v>6</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>184</v>
+        <v>175</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="I25" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N25" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="R25" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="R25" s="5" t="s">
         <v>50</v>
       </c>
       <c r="S25" s="5" t="s">
@@ -3475,47 +3364,47 @@
         <v>180</v>
       </c>
       <c r="AK25" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AL25" s="17">
+        <v>54</v>
+      </c>
+      <c r="AL25" s="8">
         <v>45163</v>
       </c>
-      <c r="AP25" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:42" ht="45.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="13" t="s">
-        <v>188</v>
+      <c r="AP25" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:42" ht="41.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="9" t="s">
+        <v>181</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>191</v>
+        <v>183</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G26" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="I26" s="12" t="s">
-        <v>193</v>
+      <c r="G26" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>186</v>
       </c>
       <c r="K26" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N26" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="R26" s="9" t="s">
+      <c r="N26" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="R26" s="5" t="s">
         <v>50</v>
       </c>
       <c r="S26" s="5" t="s">
@@ -3528,290 +3417,288 @@
         <v>180</v>
       </c>
       <c r="AK26" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL26" s="17">
+        <v>60</v>
+      </c>
+      <c r="AL26" s="8">
         <v>45163</v>
       </c>
-      <c r="AP26" s="6" t="s">
+      <c r="AP26" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:42" ht="45.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="13" t="s">
-        <v>195</v>
+      <c r="A27" s="9" t="s">
+        <v>188</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>198</v>
+        <v>190</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>191</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G27" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="I27" s="12" t="s">
-        <v>200</v>
+      <c r="G27" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>193</v>
       </c>
       <c r="K27" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N27" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="R27" s="9"/>
+      <c r="N27" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="R27" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="S27" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="AD27" s="5" t="s">
         <v>55</v>
       </c>
       <c r="AJ27" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="AL27" s="17">
+        <v>180</v>
+      </c>
+      <c r="AK27" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL27" s="8">
         <v>45163</v>
       </c>
-      <c r="AP27" s="6" t="s">
+      <c r="AP27" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:42" ht="45.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="13" t="s">
-        <v>203</v>
+      <c r="A28" s="9" t="s">
+        <v>195</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>206</v>
+        <v>197</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>198</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N28" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="AD28" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ28" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="AL28" s="8">
+        <v>45163</v>
+      </c>
+      <c r="AP28" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:42" ht="45.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="I28" s="12" t="s">
+      <c r="I29" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="K28" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N28" s="19" t="s">
+      <c r="K29" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N29" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="R28" s="9"/>
-      <c r="AD28" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ28" s="5" t="s">
+      <c r="AD29" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ29" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="AL28" s="17">
+      <c r="AL29" s="8">
         <v>45163</v>
       </c>
-      <c r="AP28" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:42" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="14">
+      <c r="AP29" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:42" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="5">
         <v>7</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B30" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C30" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D30" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E30" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F30" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G30" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="I29" s="12" t="s">
+      <c r="I30" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="L29" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N29" s="19" t="s">
+      <c r="L30" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N30" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="P29" s="19" t="s">
+      <c r="P30" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="R29" s="9" t="s">
+      <c r="R30" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="S29" s="5" t="s">
+      <c r="S30" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="AB29" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ29" s="5" t="s">
+      <c r="AB30" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ30" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="AK29" s="5" t="s">
+      <c r="AK30" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AL29" s="17">
+      <c r="AL30" s="8">
         <v>45163</v>
       </c>
-      <c r="AP29" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:42" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="13" t="s">
+      <c r="AP30" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:42" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B31" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C31" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D31" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E31" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F31" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G31" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="I30" s="12" t="s">
+      <c r="I31" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="K30" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N30" s="19" t="s">
+      <c r="K31" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N31" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="R30" s="9" t="s">
+      <c r="R31" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AB30" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL30" s="17">
+      <c r="AB31" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL31" s="8">
         <v>45163</v>
       </c>
-      <c r="AP30" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:42" ht="35.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="14">
+      <c r="AP31" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:42" ht="35.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="5">
         <v>8</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B32" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C32" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D32" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E32" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F32" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G32" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="I31" s="15" t="s">
+      <c r="I32" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="L31" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N31" s="19" t="s">
+      <c r="L32" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N32" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="R31" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="S31" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB31" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ31" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="AK31" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AL31" s="17">
-        <v>45163</v>
-      </c>
-      <c r="AP31" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:42" ht="35.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="I32" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="L32" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N32" s="19" t="s">
-        <v>238</v>
-      </c>
-      <c r="R32" s="9" t="s">
+      <c r="R32" s="5" t="s">
         <v>50</v>
       </c>
       <c r="S32" s="5" t="s">
@@ -3826,45 +3713,45 @@
       <c r="AK32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AL32" s="17">
+      <c r="AL32" s="8">
         <v>45163</v>
       </c>
-      <c r="AP32" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:42" ht="60.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="13" t="s">
-        <v>239</v>
+      <c r="AP32" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:42" ht="35.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="9" t="s">
+        <v>232</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>242</v>
+        <v>234</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>235</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G33" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="I33" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="K33" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N33" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="R33" s="9" t="s">
+      <c r="G33" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N33" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="R33" s="5" t="s">
         <v>50</v>
       </c>
       <c r="S33" s="5" t="s">
@@ -3879,145 +3766,145 @@
       <c r="AK33" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AL33" s="17">
+      <c r="AL33" s="8">
         <v>45163</v>
       </c>
-      <c r="AP33" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:42" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="13" t="s">
-        <v>246</v>
+      <c r="AP33" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:42" ht="60.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="9" t="s">
+        <v>239</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C34" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N34" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="R34" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="S34" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB34" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ34" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="AK34" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL34" s="8">
+        <v>45163</v>
+      </c>
+      <c r="AP34" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:42" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D35" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E35" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F35" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="G35" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="I34" s="12" t="s">
+      <c r="I35" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="K34" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N34" s="19" t="s">
+      <c r="K35" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N35" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="R34" s="9" t="s">
+      <c r="R35" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AB34" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ34" s="5" t="s">
+      <c r="AB35" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ35" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="AL34" s="17">
+      <c r="AL35" s="8">
         <v>45163</v>
       </c>
-      <c r="AP34" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:42" ht="51.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="14">
+      <c r="AP35" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:42" ht="51.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="5">
         <v>9</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B36" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C36" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D36" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E36" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F36" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="G36" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="I35" s="12" t="s">
+      <c r="I36" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="L35" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N35" s="19" t="s">
+      <c r="L36" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N36" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="R35" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="S35" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB35" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ35" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="AK35" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AL35" s="17">
-        <v>45163</v>
-      </c>
-      <c r="AP35" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:42" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="I36" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="K36" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N36" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="R36" s="9" t="s">
+      <c r="R36" s="5" t="s">
         <v>50</v>
       </c>
       <c r="S36" s="5" t="s">
@@ -4027,227 +3914,227 @@
         <v>55</v>
       </c>
       <c r="AJ36" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="AK36" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL36" s="8">
+        <v>45163</v>
+      </c>
+      <c r="AP36" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:42" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N37" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="R37" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="S37" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB37" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ37" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="AK36" s="5" t="s">
+      <c r="AK37" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AL36" s="17">
+      <c r="AL37" s="8">
         <v>45163</v>
       </c>
-      <c r="AN36" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO36" s="6" t="s">
+      <c r="AN37" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO37" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="AP36" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:42" ht="60.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="14">
+      <c r="AP37" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:42" ht="60.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="5">
         <v>10</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B38" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C38" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E38" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F38" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="G38" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="I37" s="12" t="s">
+      <c r="I38" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="L37" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N37" s="19" t="s">
+      <c r="L38" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N38" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="R37" s="9" t="s">
+      <c r="R38" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AE37" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL37" s="17">
+      <c r="AE38" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL38" s="8">
         <v>45163</v>
       </c>
-      <c r="AN37" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO37" s="6" t="s">
+      <c r="AN38" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO38" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="AP37" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="1:42" ht="50.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="13" t="s">
+      <c r="AP38" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:42" ht="50.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B39" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C39" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D39" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E39" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="F39" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G38" s="6" t="s">
+      <c r="G39" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="I38" s="12" t="s">
+      <c r="I39" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="K38" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N38" s="19" t="s">
+      <c r="K39" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N39" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="R38" s="9" t="s">
+      <c r="R39" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="S38" s="5" t="s">
+      <c r="S39" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="AE38" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ38" s="5" t="s">
+      <c r="AE39" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ39" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="AK38" s="5" t="s">
+      <c r="AK39" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AL38" s="17">
+      <c r="AL39" s="8">
         <v>45163</v>
       </c>
-      <c r="AN38" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO38" s="6" t="s">
+      <c r="AN39" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO39" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="AP38" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39" spans="1:42" ht="50.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="14">
+      <c r="AP39" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:42" ht="50.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="5">
         <v>11</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B40" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C40" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E40" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F40" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G39" s="6" t="s">
+      <c r="G40" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="I39" s="12" t="s">
+      <c r="I40" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="L39" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N39" s="19" t="s">
+      <c r="L40" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N40" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="R39" s="9" t="s">
+      <c r="R40" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AF39" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL39" s="17">
+      <c r="AF40" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL40" s="8">
         <v>45163</v>
       </c>
-      <c r="AP39" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="1:42" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="13" t="s">
+      <c r="AP40" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:42" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="9" t="s">
         <v>278</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="I40" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="K40" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N40" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="R40" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="S40" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF40" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ40" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="AK40" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AL40" s="17">
-        <v>45163</v>
-      </c>
-      <c r="AP40" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:42" ht="43.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="13" t="s">
-        <v>285</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>57</v>
@@ -4256,30 +4143,27 @@
         <v>279</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>287</v>
+        <v>280</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>281</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G41" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="I41" s="12" t="s">
-        <v>289</v>
+      <c r="G41" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>283</v>
       </c>
       <c r="K41" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N41" s="19" t="s">
-        <v>290</v>
-      </c>
-      <c r="O41" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="R41" s="9" t="s">
+      <c r="N41" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="R41" s="5" t="s">
         <v>50</v>
       </c>
       <c r="S41" s="5" t="s">
@@ -4294,298 +4178,301 @@
       <c r="AK41" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AL41" s="17">
+      <c r="AL41" s="8">
         <v>45163</v>
       </c>
-      <c r="AP41" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:42" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="14">
-        <v>12</v>
+      <c r="AP41" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:42" ht="43.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="9" t="s">
+        <v>285</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>292</v>
+        <v>286</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>287</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="I42" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="L42" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N42" s="19" t="s">
-        <v>295</v>
-      </c>
-      <c r="R42" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N42" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="R42" s="5" t="s">
         <v>50</v>
       </c>
+      <c r="S42" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF42" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="AJ42" s="5" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="AK42" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AL42" s="17">
+      <c r="AL42" s="8">
         <v>45163</v>
       </c>
-      <c r="AP42" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:42" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="13" t="s">
-        <v>297</v>
+      <c r="AP42" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:42" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="5">
+        <v>12</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>300</v>
+        <v>291</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>292</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="I43" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="K43" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N43" s="19" t="s">
-        <v>303</v>
-      </c>
-      <c r="R43" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="L43" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N43" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="R43" s="5" t="s">
         <v>50</v>
       </c>
       <c r="AJ43" s="5" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="AK43" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AL43" s="17">
+      <c r="AL43" s="8">
         <v>45163</v>
       </c>
-      <c r="AN43" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO43" s="6" t="s">
+      <c r="AP43" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:42" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="I44" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N44" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="R44" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ44" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="AK44" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL44" s="8">
+        <v>45163</v>
+      </c>
+      <c r="AN44" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO44" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="AP43" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:42" ht="40.35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="14">
+      <c r="AP44" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:42" ht="40.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="5">
         <v>13</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B45" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C45" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D45" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E45" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="F45" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G44" s="6" t="s">
+      <c r="G45" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="I44" s="12" t="s">
+      <c r="I45" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="L44" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N44" s="19" t="s">
+      <c r="L45" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N45" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="R44" s="9" t="s">
+      <c r="R45" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AG44" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL44" s="17">
+      <c r="AG45" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL45" s="8">
         <v>45163</v>
       </c>
-      <c r="AP44" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" spans="1:42" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="13" t="s">
+      <c r="AP45" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:42" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B46" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C46" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D46" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="E46" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="F46" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G45" s="6" t="s">
+      <c r="G46" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="I45" s="12" t="s">
+      <c r="I46" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="K45" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N45" s="19" t="s">
+      <c r="K46" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N46" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="R45" s="9" t="s">
+      <c r="R46" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AG45" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ45" s="5" t="s">
+      <c r="AG46" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ46" s="5" t="s">
         <v>319</v>
-      </c>
-      <c r="AK45" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL45" s="17">
-        <v>45163</v>
-      </c>
-      <c r="AN45" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO45" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="AP45" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="1:42" ht="44.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="14">
-        <v>14</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="I46" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="L46" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N46" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="R46" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z46" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ46" s="5" t="s">
-        <v>326</v>
       </c>
       <c r="AK46" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AL46" s="17">
+      <c r="AL46" s="8">
         <v>45163</v>
       </c>
       <c r="AN46" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AO46" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="AP46" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="47" spans="1:42" ht="45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="13" t="s">
-        <v>328</v>
+      <c r="AO46" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="AP46" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:42" ht="44.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="5">
+        <v>14</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>330</v>
+        <v>307</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>322</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="I47" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="N47" s="19" t="s">
-        <v>318</v>
-      </c>
-      <c r="R47" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="I47" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="L47" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N47" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="R47" s="5" t="s">
         <v>50</v>
       </c>
       <c r="Z47" s="5" t="s">
@@ -4594,22 +4481,25 @@
       <c r="AJ47" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="AL47" s="17">
+      <c r="AK47" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL47" s="8">
         <v>45163</v>
       </c>
       <c r="AN47" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AO47" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="AP47" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="48" spans="1:42" ht="49.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="13" t="s">
-        <v>333</v>
+      <c r="AO47" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="AP47" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:42" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="9" t="s">
+        <v>328</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>57</v>
@@ -4618,98 +4508,104 @@
         <v>329</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>335</v>
+        <v>314</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>330</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G48" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="I48" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="K48" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N48" s="19" t="s">
-        <v>338</v>
-      </c>
-      <c r="R48" s="9" t="s">
+      <c r="G48" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="I48" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="N48" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="R48" s="5" t="s">
         <v>50</v>
       </c>
       <c r="Z48" s="5" t="s">
         <v>55</v>
       </c>
       <c r="AJ48" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="AK48" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL48" s="17">
+        <v>326</v>
+      </c>
+      <c r="AL48" s="8">
         <v>45163</v>
       </c>
       <c r="AN48" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AO48" s="6" t="s">
+      <c r="AO48" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AP48" s="6" t="s">
+      <c r="AP48" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:42" ht="49.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="13" t="s">
-        <v>340</v>
+      <c r="A49" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>342</v>
+        <v>334</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>335</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="I49" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="L49" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N49" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="R49" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N49" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="R49" s="5" t="s">
         <v>50</v>
       </c>
       <c r="Z49" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AL49" s="17">
+      <c r="AJ49" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="AK49" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL49" s="8">
         <v>45163</v>
       </c>
-      <c r="AP49" s="6" t="s">
+      <c r="AN49" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO49" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AP49" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:42" ht="49.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="13" t="s">
-        <v>345</v>
+      <c r="A50" s="9" t="s">
+        <v>340</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>57</v>
@@ -4720,128 +4616,116 @@
       <c r="D50" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="E50" s="6" t="s">
-        <v>346</v>
+      <c r="E50" s="4" t="s">
+        <v>342</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G50" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="I50" s="12" t="s">
-        <v>324</v>
+      <c r="G50" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="I50" s="11" t="s">
+        <v>344</v>
       </c>
       <c r="L50" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N50" s="19" t="s">
+      <c r="N50" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="P50" s="19" t="s">
-        <v>348</v>
-      </c>
-      <c r="R50" s="9" t="s">
+      <c r="R50" s="5" t="s">
         <v>50</v>
       </c>
       <c r="Z50" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AL50" s="17">
+      <c r="AL50" s="8">
         <v>45163</v>
       </c>
-      <c r="AP50" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="51" spans="1:42" ht="51" x14ac:dyDescent="0.45">
-      <c r="A51" s="14">
-        <v>15</v>
+      <c r="AP50" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:42" ht="49.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="9" t="s">
+        <v>345</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>351</v>
+        <v>307</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>346</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G51" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="I51" s="12" t="s">
-        <v>353</v>
+      <c r="G51" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="I51" s="11" t="s">
+        <v>324</v>
       </c>
       <c r="L51" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N51" s="19" t="s">
-        <v>354</v>
-      </c>
-      <c r="R51" s="9" t="s">
+      <c r="N51" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="R51" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="S51" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA51" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ51" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="AL51" s="17">
+      <c r="Z51" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL51" s="8">
         <v>45163</v>
       </c>
-      <c r="AN51" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO51" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="AP51" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="52" spans="1:42" ht="68.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="13" t="s">
-        <v>357</v>
+      <c r="AP51" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:42" ht="38.25" x14ac:dyDescent="0.45">
+      <c r="A52" s="5">
+        <v>15</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="E52" s="6" t="s">
-        <v>359</v>
+      <c r="E52" s="4" t="s">
+        <v>351</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G52" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="I52" s="12" t="s">
+      <c r="G52" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="I52" s="11" t="s">
         <v>353</v>
       </c>
       <c r="L52" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N52" s="19" t="s">
+      <c r="N52" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="R52" s="9" t="s">
+      <c r="R52" s="5" t="s">
         <v>50</v>
       </c>
       <c r="S52" s="5" t="s">
@@ -4853,22 +4737,22 @@
       <c r="AJ52" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="AL52" s="17">
+      <c r="AL52" s="8">
         <v>45163</v>
       </c>
       <c r="AN52" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AO52" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="AP52" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="53" spans="1:42" ht="58.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="13" t="s">
-        <v>362</v>
+      <c r="AO52" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="AP52" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:42" ht="68.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="9" t="s">
+        <v>357</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>57</v>
@@ -4879,25 +4763,25 @@
       <c r="D53" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="E53" s="6" t="s">
-        <v>363</v>
+      <c r="E53" s="4" t="s">
+        <v>359</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G53" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="I53" s="12" t="s">
+      <c r="G53" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="I53" s="11" t="s">
         <v>353</v>
       </c>
       <c r="L53" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N53" s="19" t="s">
+      <c r="N53" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="R53" s="9" t="s">
+      <c r="R53" s="5" t="s">
         <v>50</v>
       </c>
       <c r="S53" s="5" t="s">
@@ -4909,51 +4793,51 @@
       <c r="AJ53" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="AL53" s="17">
+      <c r="AL53" s="8">
         <v>45163</v>
       </c>
       <c r="AN53" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AO53" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="AP53" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="54" spans="1:42" ht="40.35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="13" t="s">
-        <v>366</v>
+      <c r="AO53" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="AP53" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:42" ht="58.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A54" s="9" t="s">
+        <v>362</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>369</v>
+        <v>350</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>363</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="I54" s="12" t="s">
-        <v>371</v>
-      </c>
-      <c r="K54" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N54" s="19" t="s">
-        <v>372</v>
-      </c>
-      <c r="R54" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="I54" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="L54" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N54" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="R54" s="5" t="s">
         <v>50</v>
       </c>
       <c r="S54" s="5" t="s">
@@ -4965,262 +4849,280 @@
       <c r="AJ54" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="AK54" s="5" t="s">
+      <c r="AL54" s="8">
+        <v>45163</v>
+      </c>
+      <c r="AN54" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO54" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="AP54" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:42" ht="40.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="I55" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="K55" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N55" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="R55" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="S55" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA55" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ55" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="AK55" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AL54" s="17">
+      <c r="AL55" s="8">
         <v>45163</v>
       </c>
-      <c r="AP54" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="55" spans="1:42" ht="54.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="14">
+      <c r="AP55" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:42" ht="54.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A56" s="5">
         <v>16</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B56" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C56" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="E55" s="6" t="s">
+      <c r="E56" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="F55" s="5" t="s">
+      <c r="F56" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G55" s="6" t="s">
+      <c r="G56" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="I55" s="12" t="s">
+      <c r="I56" s="11" t="s">
         <v>376</v>
       </c>
-      <c r="L55" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N55" s="19" t="s">
+      <c r="L56" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N56" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="R55" s="9" t="s">
+      <c r="R56" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AH55" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL55" s="17">
+      <c r="AH56" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL56" s="8">
         <v>45163</v>
       </c>
-      <c r="AP55" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="56" spans="1:42" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="13" t="s">
+      <c r="AP56" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:42" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B57" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C57" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="E56" s="6" t="s">
+      <c r="E57" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="F56" s="5" t="s">
+      <c r="F57" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G56" s="6" t="s">
+      <c r="G57" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="I56" s="12" t="s">
+      <c r="I57" s="11" t="s">
         <v>382</v>
       </c>
-      <c r="K56" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N56" s="19" t="s">
+      <c r="K57" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N57" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="R56" s="9" t="s">
+      <c r="R57" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AH56" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL56" s="17">
+      <c r="AH57" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL57" s="8">
         <v>45163</v>
       </c>
-      <c r="AP56" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:42" ht="35.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="14">
+      <c r="AP57" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:42" ht="35.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A58" s="5">
         <v>17</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B58" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C58" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="E57" s="6" t="s">
+      <c r="E58" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="F57" s="5" t="s">
+      <c r="F58" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G57" s="6" t="s">
+      <c r="G58" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="I57" s="12" t="s">
+      <c r="I58" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="L57" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N57" s="19" t="s">
+      <c r="L58" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N58" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="R57" s="9" t="s">
+      <c r="R58" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AI57" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL57" s="17">
+      <c r="AI58" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL58" s="8">
         <v>45163</v>
       </c>
-      <c r="AP57" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" spans="1:42" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="13" t="s">
+      <c r="AP58" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:42" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A59" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B59" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C59" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D59" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="E58" s="6" t="s">
+      <c r="E59" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="F58" s="5" t="s">
+      <c r="F59" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G58" s="6" t="s">
+      <c r="G59" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="I58" s="12" t="s">
+      <c r="I59" s="11" t="s">
         <v>394</v>
       </c>
-      <c r="K58" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N58" s="19" t="s">
+      <c r="K59" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N59" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="R58" s="9" t="s">
+      <c r="R59" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AI58" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL58" s="17">
+      <c r="AI59" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL59" s="8">
         <v>45163</v>
       </c>
-      <c r="AP58" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="59" spans="1:42" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="14">
+      <c r="AP59" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:42" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A60" s="5">
         <v>18</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B60" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C60" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="E59" s="6" t="s">
+      <c r="E60" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="F59" s="5" t="s">
+      <c r="F60" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G59" s="6" t="s">
+      <c r="G60" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="I59" s="12" t="s">
+      <c r="I60" s="11" t="s">
         <v>399</v>
       </c>
-      <c r="L59" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N59" s="19" t="s">
+      <c r="L60" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N60" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="R59" s="9" t="s">
+      <c r="R60" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AL59" s="17">
+      <c r="AL60" s="8">
         <v>45163</v>
       </c>
-      <c r="AP59" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="60" spans="1:42" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A60" s="13" t="s">
+      <c r="AP60" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61" spans="1:42" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A61" s="9" t="s">
         <v>401</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="I60" s="12" t="s">
-        <v>405</v>
-      </c>
-      <c r="L60" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N60" s="19" t="s">
-        <v>406</v>
-      </c>
-      <c r="R60" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL60" s="17">
-        <v>45163</v>
-      </c>
-      <c r="AP60" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="61" spans="1:42" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="13" t="s">
-        <v>407</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>57</v>
@@ -5228,33 +5130,37 @@
       <c r="C61" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="E61" s="6" t="s">
-        <v>408</v>
+      <c r="E61" s="4" t="s">
+        <v>403</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G61" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="I61" s="12" t="s">
-        <v>410</v>
+      <c r="G61" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="I61" s="11" t="s">
+        <v>405</v>
       </c>
       <c r="L61" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N61" s="19" t="s">
-        <v>411</v>
-      </c>
-      <c r="R61" s="9"/>
-      <c r="AL61" s="17"/>
-      <c r="AP61" s="6" t="s">
+      <c r="N61" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="R61" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL61" s="8">
+        <v>45163</v>
+      </c>
+      <c r="AP61" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:42" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A62" s="13" t="s">
-        <v>412</v>
+      <c r="A62" s="9" t="s">
+        <v>407</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>57</v>
@@ -5262,33 +5168,32 @@
       <c r="C62" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="E62" s="6" t="s">
-        <v>413</v>
+      <c r="E62" s="4" t="s">
+        <v>408</v>
       </c>
       <c r="F62" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G62" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="I62" s="12" t="s">
-        <v>415</v>
+      <c r="G62" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="I62" s="11" t="s">
+        <v>410</v>
       </c>
       <c r="L62" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N62" s="19" t="s">
-        <v>416</v>
-      </c>
-      <c r="R62" s="9"/>
-      <c r="AL62" s="17"/>
-      <c r="AP62" s="6" t="s">
+      <c r="N62" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="AL62" s="8"/>
+      <c r="AP62" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="63" spans="1:42" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A63" s="13" t="s">
-        <v>417</v>
+      <c r="A63" s="9" t="s">
+        <v>412</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>57</v>
@@ -5296,33 +5201,32 @@
       <c r="C63" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="E63" s="6" t="s">
-        <v>418</v>
+      <c r="E63" s="4" t="s">
+        <v>413</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G63" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="I63" s="12" t="s">
-        <v>420</v>
+      <c r="G63" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="I63" s="11" t="s">
+        <v>415</v>
       </c>
       <c r="L63" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N63" s="19" t="s">
-        <v>421</v>
-      </c>
-      <c r="R63" s="9"/>
-      <c r="AL63" s="17"/>
-      <c r="AP63" s="6" t="s">
+      <c r="N63" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="AL63" s="8"/>
+      <c r="AP63" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="64" spans="1:42" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A64" s="13" t="s">
-        <v>422</v>
+      <c r="A64" s="9" t="s">
+        <v>417</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>57</v>
@@ -5330,131 +5234,127 @@
       <c r="C64" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="E64" s="6" t="s">
-        <v>423</v>
+      <c r="E64" s="4" t="s">
+        <v>418</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G64" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="I64" s="12" t="s">
-        <v>425</v>
+      <c r="G64" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="I64" s="11" t="s">
+        <v>420</v>
       </c>
       <c r="L64" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N64" s="19" t="s">
-        <v>400</v>
-      </c>
-      <c r="R64" s="9"/>
-      <c r="AL64" s="17"/>
-      <c r="AP64" s="6" t="s">
+      <c r="N64" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="AL64" s="8"/>
+      <c r="AP64" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="65" spans="1:42" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A65" s="13" t="s">
-        <v>426</v>
+      <c r="A65" s="9" t="s">
+        <v>422</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C65" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="I65" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="L65" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N65" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="AL65" s="8"/>
+      <c r="AP65" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" spans="1:42" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A66" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C66" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="E65" s="6" t="s">
+      <c r="E66" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="G65" s="6" t="s">
+      <c r="G66" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="I65" s="12" t="s">
+      <c r="I66" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="L65" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N65" s="19" t="s">
+      <c r="L66" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N66" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="R65" s="9"/>
-      <c r="AL65" s="17"/>
-      <c r="AP65" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="66" spans="1:42" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="14">
+      <c r="AL66" s="8"/>
+      <c r="AP66" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="67" spans="1:42" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A67" s="5">
         <v>19</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B67" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C67" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="E66" s="6" t="s">
+      <c r="E67" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="F66" s="5" t="s">
+      <c r="F67" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G66" s="6" t="s">
+      <c r="G67" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="I66" s="12" t="s">
+      <c r="I67" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="L66" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N66" s="19" t="s">
+      <c r="L67" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N67" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="AP66" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="67" spans="1:42" ht="64.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A67" s="13" t="s">
+      <c r="AP67" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="68" spans="1:42" ht="64.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A68" s="9" t="s">
         <v>434</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G67" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="I67" s="12" t="s">
-        <v>439</v>
-      </c>
-      <c r="K67" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N67" s="19" t="s">
-        <v>440</v>
-      </c>
-      <c r="AP67" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="68" spans="1:42" ht="57" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A68" s="13" t="s">
-        <v>441</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>57</v>
@@ -5463,33 +5363,33 @@
         <v>435</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>443</v>
+        <v>436</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>437</v>
       </c>
       <c r="F68" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G68" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="I68" s="12" t="s">
-        <v>445</v>
+      <c r="G68" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="I68" s="11" t="s">
+        <v>439</v>
       </c>
       <c r="K68" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N68" s="19" t="s">
-        <v>446</v>
-      </c>
-      <c r="AP68" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="69" spans="1:42" ht="48" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A69" s="13" t="s">
-        <v>447</v>
+      <c r="N68" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="AP68" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="69" spans="1:42" ht="57" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A69" s="9" t="s">
+        <v>441</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>57</v>
@@ -5498,33 +5398,33 @@
         <v>435</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>448</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>449</v>
+        <v>442</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>443</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G69" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="I69" s="12" t="s">
-        <v>451</v>
+      <c r="G69" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="I69" s="11" t="s">
+        <v>445</v>
       </c>
       <c r="K69" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N69" s="19" t="s">
-        <v>452</v>
-      </c>
-      <c r="AP69" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="70" spans="1:42" ht="54.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A70" s="13" t="s">
-        <v>453</v>
+      <c r="N69" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="AP69" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="70" spans="1:42" ht="48" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A70" s="9" t="s">
+        <v>447</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>57</v>
@@ -5533,164 +5433,208 @@
         <v>435</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>455</v>
+        <v>448</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>449</v>
       </c>
       <c r="F70" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G70" s="6" t="s">
+      <c r="G70" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="I70" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="K70" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N70" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="AP70" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="71" spans="1:42" ht="54.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A71" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G71" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="I70" s="12" t="s">
+      <c r="I71" s="11" t="s">
         <v>457</v>
       </c>
-      <c r="K70" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N70" s="19" t="s">
+      <c r="K71" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N71" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="AP70" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="71" spans="1:42" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A71" s="14">
+      <c r="AP71" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="72" spans="1:42" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A72" s="5">
         <v>20</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G71" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="I71" s="12" t="s">
-        <v>461</v>
-      </c>
-      <c r="L71" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N71" s="19" t="s">
-        <v>462</v>
-      </c>
-      <c r="AP71" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="72" spans="1:42" ht="42.85" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A72" s="14">
-        <v>21</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I72" s="22" t="s">
+      <c r="G72" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="I72" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="L72" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N72" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="AP72" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="73" spans="1:42" ht="42.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A73" s="5">
+        <v>21</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I73" s="13" t="s">
         <v>376</v>
       </c>
-      <c r="L72" s="5" t="s">
+      <c r="L73" s="5" t="s">
         <v>55</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN70" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AN71" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="I4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="I24" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="I45" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="I46" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="I29" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="I35" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="I31" r:id="rId8" location="BJNR107010012BJNG000100118" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="I33" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="I51" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="I52" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="I53" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="I41" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="I38" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="I48" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="I54" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="I36" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="I26" r:id="rId18" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="I37" r:id="rId19" location="__bgbl__%2F%2F*%5B%40attr_id%3D%27bgbl117s2097.pdf%27%5D__1692949502060" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="I3" r:id="rId20" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="I30" r:id="rId21" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="I32" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="I34" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="I40" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="I39" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="I5" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="I7" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="I6" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="I8" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="I9" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="I11" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="I49" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="I55" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="I58" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="I57" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="I60" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="I23" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="I71" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="I50" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="I10" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="I12" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="I13" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="I14" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="I15" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="I16" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="I18" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="I19" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="I22" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="I25" r:id="rId49" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="I27" r:id="rId50" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="I28" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="I43" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="I59" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="I56" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="I61" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="I62" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="I63" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="I64" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="I65" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="I66" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="I67" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="I68" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="I69" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="I70" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="I44" r:id="rId65" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="I72" r:id="rId66" xr:uid="{008ACA7A-1E4E-45E8-B5C5-ABEB6A1CFDDD}"/>
+    <hyperlink ref="I5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="I25" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I46" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="I47" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="I30" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="I36" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="I32" r:id="rId8" location="BJNR107010012BJNG000100118" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="I34" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="I52" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="I53" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="I54" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="I42" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="I39" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="I49" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="I55" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="I37" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="I27" r:id="rId18" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="I38" r:id="rId19" location="__bgbl__%2F%2F*%5B%40attr_id%3D%27bgbl117s2097.pdf%27%5D__1692949502060" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="I4" r:id="rId20" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="I31" r:id="rId21" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="I33" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="I35" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="I41" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="I40" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="I6" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="I8" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="I7" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="I9" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="I10" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="I12" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="I50" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="I56" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="I59" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="I58" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="I61" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="I24" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="I72" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="I51" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="I11" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="I13" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="I14" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="I15" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="I16" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="I17" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="I19" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="I20" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="I23" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="I26" r:id="rId49" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="I28" r:id="rId50" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="I29" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="I44" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="I60" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="I57" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="I62" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="I63" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="I64" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="I65" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="I66" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="I67" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="I68" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="I69" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="I70" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="I71" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="I45" r:id="rId65" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="I73" r:id="rId66" xr:uid="{008ACA7A-1E4E-45E8-B5C5-ABEB6A1CFDDD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId67"/>
   <ignoredErrors>
-    <ignoredError sqref="A3 A5" numberStoredAsText="1"/>
+    <ignoredError sqref="A4 A6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B55D64EF04374D4FA4E9FE6ABEF93A43" ma:contentTypeVersion="9" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="26418329725b75c10c3dc83a88123cf8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e744d089-a1ae-4cfd-980c-2cbf8abc2a2e" xmlns:ns3="11c6a029-b440-4975-9de9-ab29cf645df4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6e337ca5debfdabdc1944c5ae725b126" ns2:_="" ns3:_="">
     <xsd:import namespace="e744d089-a1ae-4cfd-980c-2cbf8abc2a2e"/>
@@ -5873,15 +5817,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -5894,6 +5829,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{431921F9-EAC7-4C4A-A91F-DEF0A1987FE0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B75D71A1-ECC6-412C-AFCD-22991551060A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5912,14 +5855,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{431921F9-EAC7-4C4A-A91F-DEF0A1987FE0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{118653BB-A450-49AA-A333-8156ACB1E3F7}">
   <ds:schemaRefs>
